--- a/JDA_v2/src/test/java/testData/JDAtestdata.xlsx
+++ b/JDA_v2/src/test/java/testData/JDAtestdata.xlsx
@@ -3,32 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB20A1B0-2028-4ABF-9477-D1E6639FD262}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8723FFF-CBC3-4BD6-9D30-935135968F03}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="TestCase" sheetId="5" r:id="rId2"/>
     <sheet name="TestData" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Username</t>
   </si>
@@ -57,29 +51,41 @@
     <t>Dmdgrp</t>
   </si>
   <si>
+    <t>7200-650</t>
+  </si>
+  <si>
+    <t>7201-LASV</t>
+  </si>
+  <si>
+    <t>8700-438</t>
+  </si>
+  <si>
+    <t>8702-1000</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>8703-1000</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>BatchUser</t>
-  </si>
-  <si>
-    <t>password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF4C4C4C"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,7 +110,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,15 +411,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="eG3UlGIRuXv9ix3/FuOnVyHrJEqbSCk2QqsfBY1l9FKx7VP3j1oTUHd8dGdkFhztQT9cDLqD8f6QMutlCuGEbg==" saltValue="1F9s3l5IV6pOVcZ10sPWuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -458,16 +465,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -483,16 +490,39 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>922559</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>13137</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>13137</v>
+        <v>952463</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>958243</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/JDA_v2/src/test/java/testData/JDAtestdata.xlsx
+++ b/JDA_v2/src/test/java/testData/JDAtestdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8723FFF-CBC3-4BD6-9D30-935135968F03}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828BAC3A-9ABD-4AE9-AA59-E1442BD517C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/JDA_v2/src/test/java/testData/JDAtestdata.xlsx
+++ b/JDA_v2/src/test/java/testData/JDAtestdata.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828BAC3A-9ABD-4AE9-AA59-E1442BD517C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70C7267-3411-44DD-BD31-705190D6D80F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="TestCase" sheetId="5" r:id="rId2"/>
-    <sheet name="TestData" sheetId="6" r:id="rId3"/>
+    <sheet name="TestData" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>Username</t>
   </si>
@@ -33,52 +33,149 @@
     <t>Supersession</t>
   </si>
   <si>
+    <t>UDT_PIM_ITEM_Supersession</t>
+  </si>
+  <si>
+    <t>Demand Workbench - New</t>
+  </si>
+  <si>
+    <t>TC Name</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>BatchUser</t>
+  </si>
+  <si>
     <t>Item</t>
   </si>
   <si>
     <t>Location</t>
   </si>
   <si>
-    <t>UDT_PIM_ITEM_Supersession</t>
-  </si>
-  <si>
-    <t>Demand Workbench - New</t>
-  </si>
-  <si>
-    <t>TC Name</t>
-  </si>
-  <si>
     <t>Dmdgrp</t>
   </si>
   <si>
-    <t>7200-650</t>
+    <t>100320</t>
+  </si>
+  <si>
+    <t>8301-1000</t>
+  </si>
+  <si>
+    <t>8700-426</t>
+  </si>
+  <si>
+    <t>8700-715</t>
+  </si>
+  <si>
+    <t>8703-1000</t>
+  </si>
+  <si>
+    <t>5100-999</t>
+  </si>
+  <si>
+    <t>8702-1000</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>5102-1000</t>
+  </si>
+  <si>
+    <t>5100-450</t>
+  </si>
+  <si>
+    <t>7801-DENV</t>
+  </si>
+  <si>
+    <t>8300-439</t>
+  </si>
+  <si>
+    <t>100355</t>
+  </si>
+  <si>
+    <t>1401-BULK</t>
+  </si>
+  <si>
+    <t>3500-650</t>
+  </si>
+  <si>
+    <t>10355</t>
+  </si>
+  <si>
+    <t>5500-999</t>
+  </si>
+  <si>
+    <t>5100-434</t>
+  </si>
+  <si>
+    <t>8701-1000</t>
+  </si>
+  <si>
+    <t>106695</t>
+  </si>
+  <si>
+    <t>9301-1000</t>
+  </si>
+  <si>
+    <t>8700-999</t>
+  </si>
+  <si>
+    <t>9202-1000</t>
+  </si>
+  <si>
+    <t>8200-420</t>
+  </si>
+  <si>
+    <t>9201-1000</t>
+  </si>
+  <si>
+    <t>9500-999</t>
+  </si>
+  <si>
+    <t>8201-BULK</t>
+  </si>
+  <si>
+    <t>10861</t>
+  </si>
+  <si>
+    <t>8704-1000</t>
   </si>
   <si>
     <t>7201-LASV</t>
   </si>
   <si>
-    <t>8700-438</t>
-  </si>
-  <si>
-    <t>8702-1000</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>8703-1000</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>BatchUser</t>
+    <t>8700-717</t>
+  </si>
+  <si>
+    <t>10862</t>
+  </si>
+  <si>
+    <t>5300-999</t>
+  </si>
+  <si>
+    <t>10911</t>
+  </si>
+  <si>
+    <t>111938</t>
+  </si>
+  <si>
+    <t>6601-LIHU</t>
+  </si>
+  <si>
+    <t>7600-999</t>
+  </si>
+  <si>
+    <t>9502-1000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,9 +205,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,8 +495,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -413,10 +509,10 @@
     </row>
     <row r="2" spans="1:2" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -435,12 +531,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -450,12 +546,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -464,65 +560,247 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA07C58B-152D-4970-9858-D7C49F41FA3C}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>13137</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>952463</v>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>958243</v>
-      </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>